--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,28 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702E02D9-273B-44DF-B776-D60E8364240F}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49E17BD-E146-43FB-B1F2-E027F6374F0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
+    <sheet name="ZARKIN" sheetId="2" r:id="rId2"/>
+    <sheet name="ITEKNIA" sheetId="3" r:id="rId3"/>
+    <sheet name="VMA" sheetId="4" r:id="rId4"/>
+    <sheet name="YOLANDA" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$22</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
+    <definedName name="BANCOS" localSheetId="2">[1]CATEGORIAS!$C$8:$C$20</definedName>
+    <definedName name="BANCOS" localSheetId="3">[1]CATEGORIAS!$C$8:$C$20</definedName>
+    <definedName name="BANCOS" localSheetId="4">[1]CATEGORIAS!$C$8:$C$20</definedName>
+    <definedName name="BANCOS" localSheetId="1">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS">[2]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="CATEGORIA" localSheetId="0">[1]CATEGORIAS!$B$6:$L$6</definedName>
+    <definedName name="CATEGORIA" localSheetId="2">[1]CATEGORIAS!$B$6:$L$6</definedName>
+    <definedName name="CATEGORIA" localSheetId="3">[1]CATEGORIAS!$B$6:$L$6</definedName>
+    <definedName name="CATEGORIA" localSheetId="4">[1]CATEGORIAS!$B$6:$L$6</definedName>
+    <definedName name="CATEGORIA" localSheetId="1">[1]CATEGORIAS!$B$6:$L$6</definedName>
     <definedName name="CATEGORIA">[2]CATEGORIAS!$B$6:$L$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +66,34 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{28F75A77-567E-4EB7-A59E-9AC2480944CA}">
+    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{28F75A77-567E-4EB7-A59E-9AC2480944CA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAk5TAb30
+Vicente Cueva R    (2023-02-14 04:39:17)
+Anterior Victoria77</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{B10790FA-3AC8-490B-B749-585DB9CB49DD}">
       <text>
         <r>
           <rPr>
@@ -71,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -972,6 +1016,45 @@
   </si>
   <si>
     <t>Repositorio para Muliix</t>
+  </si>
+  <si>
+    <t>INVTEK</t>
+  </si>
+  <si>
+    <t>IP: 192.168.0.192</t>
+  </si>
+  <si>
+    <t>http://iteknia.serveftp.com:8080</t>
+  </si>
+  <si>
+    <t>DUOLINGO</t>
+  </si>
+  <si>
+    <t>https://www.duolingo.com/?isLoggingIn=true</t>
+  </si>
+  <si>
+    <t>Vicente_Cueva</t>
+  </si>
+  <si>
+    <t>Correo: vcuevar@gmail.com</t>
+  </si>
+  <si>
+    <t>SIZ</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>Usuario de Costos - Diseño</t>
+  </si>
+  <si>
+    <t>http://187.189.177.39:8082/siz_sa/public/auth/login</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Usuario de Sistemas</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,6 +1317,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,6 +1385,178 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1876425" y="85725"/>
+          <a:ext cx="990600" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F028B6C6-805F-42B4-B5AB-62B5C78A2493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="85725"/>
+          <a:ext cx="990600" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25BB99D-F487-4BEE-A55B-A7C6D24D3E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="85725"/>
+          <a:ext cx="990600" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2E4C80-C931-48A0-BC71-C54319197943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="85725"/>
+          <a:ext cx="990600" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17139E81-B24B-4740-B498-75EBE26F0F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="85725"/>
           <a:ext cx="990600" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1461,8 +1719,8 @@
       <sheetName val="TERTIUS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="6">
           <cell r="B6" t="str">
@@ -1516,63 +1774,63 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>B_RESERVA</v>
+            <v>B_SANTANDER</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>B_SANTANDER</v>
+            <v>B_VICENTE</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>B_VICENTE</v>
+            <v>INV_POPULAR</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>INV_POPULAR</v>
+            <v>INV_SANTANDER</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>INV_SANTANDER</v>
+            <v>INV30_AZTECA</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
-            <v>INV30_AZTECA</v>
+            <v>PLAZ28_AZTECA</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>TARJETA_TREN</v>
+            <v>PLAZ91_AZTECA</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
-            <v>PLAZ28_AZTECA</v>
+            <v>PLAZ92_AZTECA</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19" t="str">
-            <v>PLAZ91_AZTECA</v>
+            <v>TARJETA_TREN</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
-            <v>PLAZ92_AZTECA</v>
+            <v>VIVERO</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1878,7 +2136,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -1909,40 +2167,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="44">
-        <f>MAX(B6:B425)</f>
-        <v>45722</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="45">
+        <f>MAX(B6:B427)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1980,1987 +2238,834 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="8">
-        <v>45574</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>252</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="8">
-        <v>45188</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="8">
-        <v>45140</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="8">
-        <v>45140</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="8">
-        <v>45609</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8">
-        <v>45609</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8">
-        <v>45567</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>257</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8">
-        <v>45196</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8">
-        <v>45357</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>259</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8">
-        <v>45715</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>290</v>
-      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8">
-        <v>45715</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>290</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8">
-        <v>45722</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>298</v>
-      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="11">
-        <v>777</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8">
-        <v>45541</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24" s="11">
-        <v>777</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="11">
-        <v>777</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="8">
-        <v>45532</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="11">
-        <v>777</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>265</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>266</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="G27" s="12"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="11">
-        <v>777</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>270</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8">
-        <v>45532</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F29" s="11">
-        <v>777</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="8">
-        <v>44965</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>203</v>
-      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="8">
-        <v>45400</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="8">
-        <v>45342</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="8">
-        <v>45342</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>209</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>214</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="13" t="s">
-        <v>218</v>
-      </c>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>220</v>
-      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="13" t="s">
-        <v>221</v>
-      </c>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>225</v>
-      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>228</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="8">
-        <v>45000</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>231</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>228</v>
-      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>235</v>
-      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8">
-        <v>44565</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>243</v>
-      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
-        <v>45609</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="8">
-        <v>45054</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8">
-        <v>45708</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="16">
-        <v>44537</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H51" s="19">
-        <v>475869</v>
-      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="16">
-        <v>44537</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8">
-        <v>45685</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="16">
-        <v>45075</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="8">
-        <v>45436</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="8">
-        <v>45385</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="8">
-        <v>45323</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="8">
-        <v>45069</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="13"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="8">
-        <v>45037</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="8">
-        <v>45708</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="8">
-        <v>45497</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E61" s="10">
-        <v>-23</v>
-      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="8">
-        <v>44564</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>123</v>
-      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="8">
-        <v>44958</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="8">
-        <v>44215</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>284</v>
-      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="29">
-        <v>45335</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>113</v>
-      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="8">
-        <v>45663</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="16">
-        <v>45127</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="16">
-        <v>45014</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>104</v>
-      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="8">
-        <v>45671</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="13" t="s">
-        <v>287</v>
-      </c>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="36">
-        <v>44620</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>101</v>
-      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="16">
-        <v>45318</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="8">
-        <v>44967</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="8">
-        <v>45232</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="16">
-        <v>44851</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="16">
-        <v>45139</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="8">
-        <v>45362</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="8">
-        <v>45161</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" s="14"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="13"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="16">
-        <v>44958</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="13"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="16">
-        <v>45488</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="13"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="16">
-        <v>45120</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="8">
-        <v>45310</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="16">
-        <v>44927</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="8">
-        <v>45481</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="13"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="8">
-        <v>45307</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F88" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="8">
-        <v>45435</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="8">
-        <v>45033</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="8">
-        <v>45434</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="13"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="8">
-        <v>45505</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="8">
-        <v>45043</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="8">
-        <v>45554</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
@@ -4052,49 +3157,2907 @@
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
     </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H94">
-    <sortCondition ref="C7:C94"/>
-    <sortCondition ref="D7:D94"/>
+  <autoFilter ref="B6:H106" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H96">
+    <sortCondition ref="C7:C96"/>
+    <sortCondition ref="D7:D96"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C9082-AC22-49B6-949D-38C15B9951F8}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="45">
+        <f>MAX(B6:B343)</f>
+        <v>45726</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>45435</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>45033</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>45434</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>45505</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>45043</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1059</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>45554</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>45726</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>45726</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H22" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E54" r:id="rId1" xr:uid="{86B44C09-FAC1-459F-BB63-89FE787E3D6D}"/>
-    <hyperlink ref="E55" r:id="rId2" xr:uid="{334E28D9-F837-48E4-BECC-BDA4556A6FF1}"/>
-    <hyperlink ref="F58" r:id="rId3" xr:uid="{B28CB170-D903-44D1-83ED-CA9B3F6CCF9E}"/>
-    <hyperlink ref="F65" r:id="rId4" xr:uid="{77D28C0F-70A3-46E1-86C6-BFC1E7BCB772}"/>
-    <hyperlink ref="E59" r:id="rId5" xr:uid="{4B71BD4D-CC86-431F-88EB-C439766B8FC6}"/>
-    <hyperlink ref="H59" r:id="rId6" xr:uid="{D50D90B1-6A7F-4932-972A-CA6E68B9DF43}"/>
-    <hyperlink ref="E68" r:id="rId7" xr:uid="{D925091A-EDB6-4432-96BD-D3D44FF85CC5}"/>
-    <hyperlink ref="H68" r:id="rId8" xr:uid="{32A0F601-C035-4DDA-A83D-06B4308B0DB0}"/>
-    <hyperlink ref="E80" r:id="rId9" xr:uid="{4E542D57-C38B-4F78-98FE-B43EFD80E6C7}"/>
-    <hyperlink ref="E82" r:id="rId10" xr:uid="{76CDD7F9-5933-477A-AB70-9DC19285CEDD}"/>
-    <hyperlink ref="E84" r:id="rId11" xr:uid="{DAC9249E-D382-422D-AEED-9BA0A12B0029}"/>
-    <hyperlink ref="E52" r:id="rId12" xr:uid="{3DFEAC15-5852-428C-872A-F221246C3F39}"/>
-    <hyperlink ref="E70" r:id="rId13" xr:uid="{75A8E948-61CA-4103-A272-B64E52390983}"/>
-    <hyperlink ref="F70" r:id="rId14" xr:uid="{99C555C8-5265-490D-BF79-5429D783B259}"/>
-    <hyperlink ref="E76" r:id="rId15" xr:uid="{43BE3C0E-525A-473D-B846-6AB6DABC5564}"/>
-    <hyperlink ref="F73" r:id="rId16" xr:uid="{2F89A89D-BC15-4482-A1C8-385DD1EF3970}"/>
-    <hyperlink ref="E77" r:id="rId17" xr:uid="{ED3A0800-96AA-4C4B-8FE3-6A5AA707CC4B}"/>
-    <hyperlink ref="F88" r:id="rId18" xr:uid="{A4B77B30-77E2-4A7C-BB12-3D63BE3F2CBB}"/>
-    <hyperlink ref="E83" r:id="rId19" xr:uid="{643366BF-424E-4F7E-B6F6-0EADE5FC6FE9}"/>
-    <hyperlink ref="E71" r:id="rId20" xr:uid="{ABFAF29B-AAC0-43D7-B63C-9B86DE114AEF}"/>
-    <hyperlink ref="F71" r:id="rId21" xr:uid="{75F9431A-3F95-4008-84C5-DA73F1941F8D}"/>
-    <hyperlink ref="E57" r:id="rId22" xr:uid="{36BA6270-8A64-4A27-9AD3-C9D365F5F1AC}"/>
-    <hyperlink ref="F57" r:id="rId23" xr:uid="{F9EED523-B84E-457A-8E1B-E3A82031CF90}"/>
-    <hyperlink ref="H89" r:id="rId24" xr:uid="{F5DAA502-CB56-4EDA-B7B2-1685235C9EC2}"/>
-    <hyperlink ref="E74" r:id="rId25" xr:uid="{DEF30F3B-F57E-499B-A790-1E60C98F8EB9}"/>
-    <hyperlink ref="E81" r:id="rId26" xr:uid="{623E53BC-3829-4D3F-8BC8-C053DB5FBE52}"/>
-    <hyperlink ref="F92" r:id="rId27" xr:uid="{56FF8A57-A464-4372-8E6E-5CC211DB25BC}"/>
-    <hyperlink ref="F66" r:id="rId28" xr:uid="{C3B97EE6-E5C3-41BB-95ED-B6FC34CEFD52}"/>
-    <hyperlink ref="F53" r:id="rId29" xr:uid="{0BFD4A25-34FC-4AF4-99AF-D45B862F94F8}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B501E8-22E3-49FD-8B10-41FFB851A25C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="45">
+        <f>MAX(B6:B378)</f>
+        <v>45722</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8">
+        <v>45574</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8">
+        <v>45188</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8">
+        <v>45140</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8">
+        <v>45140</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8">
+        <v>45567</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8">
+        <v>45721</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8">
+        <v>45196</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8">
+        <v>45357</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8">
+        <v>45715</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8">
+        <v>45715</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8">
+        <v>45722</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="11">
+        <v>777</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8">
+        <v>45541</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="11">
+        <v>777</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="11">
+        <v>777</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8">
+        <v>45532</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="11">
+        <v>777</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="11">
+        <v>777</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8">
+        <v>45532</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="11">
+        <v>777</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8">
+        <v>44965</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8">
+        <v>45400</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8">
+        <v>45342</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8">
+        <v>45342</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8">
+        <v>45000</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>44565</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H57" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{6DAF68C4-ECAD-4CC2-8448-7D43F7496622}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75747C45-B5BA-4D54-921D-87E49D767A20}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="45">
+        <f>MAX(B6:B372)</f>
+        <v>45725</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>45054</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>45708</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>45725</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>44537</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="19">
+        <v>475869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>44537</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>45685</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>45075</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>45436</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>45385</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>45323</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>45069</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>45037</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>45708</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>45497</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-23</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <v>44564</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>44958</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <v>44215</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="29">
+        <v>45335</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>45663</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>45127</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>45014</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="8">
+        <v>45671</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="36">
+        <v>44620</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>45318</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
+        <v>44967</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <v>45232</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>44851</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
+        <v>45139</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
+        <v>45362</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
+        <v>44958</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="16">
+        <v>45488</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="16">
+        <v>45120</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <v>45310</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="16">
+        <v>44927</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H51" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{15C086F2-F597-4D51-B2E7-3FAD96221D78}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{8BB978DC-E232-48F0-9939-636AAC0E6406}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{92544A31-8743-4333-B41A-FC5AFE5A1056}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
+    <hyperlink ref="H18" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
+    <hyperlink ref="H27" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
+    <hyperlink ref="E39" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
+    <hyperlink ref="E41" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
+    <hyperlink ref="E43" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
+    <hyperlink ref="F29" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
+    <hyperlink ref="E35" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
+    <hyperlink ref="F32" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
+    <hyperlink ref="E36" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
+    <hyperlink ref="E42" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
+    <hyperlink ref="E16" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
+    <hyperlink ref="F16" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
+    <hyperlink ref="E33" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
+    <hyperlink ref="F25" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
+    <hyperlink ref="H9" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED40AF4-BE12-4B75-97BB-3A797C14A524}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="45">
+        <f>MAX(B6:B339)</f>
+        <v>45481</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>45481</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>45307</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H18" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{A103A37A-BAD9-4367-A173-2D832BE36244}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49E17BD-E146-43FB-B1F2-E027F6374F0E}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D87DCA-8994-4D15-897F-A434C4C85BA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$16</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS" localSheetId="2">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS" localSheetId="3">[1]CATEGORIAS!$C$8:$C$20</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -1055,6 +1055,150 @@
   </si>
   <si>
     <t>Usuario de Sistemas</t>
+  </si>
+  <si>
+    <t>Servidor de Correos Zarkin</t>
+  </si>
+  <si>
+    <t>http://webmail.zarkin.com/index.php/admin/index/logout</t>
+  </si>
+  <si>
+    <t>adalberto.ramos</t>
+  </si>
+  <si>
+    <t>Ei$0fQ@7!</t>
+  </si>
+  <si>
+    <t>Administrador de correos Zarkin.</t>
+  </si>
+  <si>
+    <t>Iteknia Linux</t>
+  </si>
+  <si>
+    <t>401 880 473</t>
+  </si>
+  <si>
+    <t>Maquina que uso para Iteknia.</t>
+  </si>
+  <si>
+    <t>Correos Zarkin por la WEB</t>
+  </si>
+  <si>
+    <t>http://webmail.zarkin.com</t>
+  </si>
+  <si>
+    <t>vicente.cueva@zarkin.com</t>
+  </si>
+  <si>
+    <t>fX)YjO</t>
+  </si>
+  <si>
+    <t>Correo Zarkin. Tenia victoria cambio Nico, porque instalo en Escritorio Remoto.</t>
+  </si>
+  <si>
+    <t>ESCRITORIO REMOTO</t>
+  </si>
+  <si>
+    <t>187.189.177.39:1013</t>
+  </si>
+  <si>
+    <t>sistema2</t>
+  </si>
+  <si>
+    <t>Dominio: Workgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://login.microsoftonline.com</t>
+  </si>
+  <si>
+    <t>it.due@zarkin.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Cuenta para Oficce 365 que traigo asignada.</t>
+  </si>
+  <si>
+    <t>SISTEMAS</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>S1000</t>
+  </si>
+  <si>
+    <t>SAP 8</t>
+  </si>
+  <si>
+    <t>Escritorio Remoto</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>aqnlaaepp</t>
+  </si>
+  <si>
+    <t>Confirmada el 28 de Mayo del 2019.</t>
+  </si>
+  <si>
+    <t>nicovi2019</t>
+  </si>
+  <si>
+    <t>Se cambio por posible urto de contraseña. 19/Jul/19</t>
+  </si>
+  <si>
+    <t>Sistema de Reporteria VB.</t>
+  </si>
+  <si>
+    <t>\\ZARKIN-088</t>
+  </si>
+  <si>
+    <t>Administrador  </t>
+  </si>
+  <si>
+    <t>Zarkin@2016</t>
+  </si>
+  <si>
+    <t>Faltante de Embarcar.</t>
+  </si>
+  <si>
+    <t>Server ZARKIN-088</t>
+  </si>
+  <si>
+    <t>187.189.177.39:1014</t>
+  </si>
+  <si>
+    <t>Sistemas1014\SISTEMA2</t>
+  </si>
+  <si>
+    <t>Se aplico SAP 10 para poder usar con REMINA Linux.</t>
+  </si>
+  <si>
+    <t>USUARIO VICENTE</t>
+  </si>
+  <si>
+    <t>SISTEMA2</t>
+  </si>
+  <si>
+    <t>USUARIO SAP MANAGER</t>
+  </si>
+  <si>
+    <t>Sap@2020</t>
+  </si>
+  <si>
+    <t>Envio Miguel el 04/Noviembre/2020</t>
+  </si>
+  <si>
+    <t>SERVIDOR DEL CHECADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 135 874 551 </t>
+  </si>
+  <si>
+    <t>muliix700</t>
+  </si>
+  <si>
+    <t>Equipo donde esta sistema checador.</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,6 +1316,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
         <bgColor rgb="FFCCFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1203,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1281,21 +1431,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1454,27 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2138,1067 +2294,6 @@
   </sheetPr>
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="45">
-        <f>MAX(B6:B427)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B6:H106" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H96">
-    <sortCondition ref="C7:C96"/>
-    <sortCondition ref="D7:D96"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C9082-AC22-49B6-949D-38C15B9951F8}">
-  <sheetPr>
-    <tabColor rgb="FFFF0066"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -3228,40 +2323,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="45">
-        <f>MAX(B6:B343)</f>
-        <v>45726</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B427)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3275,211 +2370,110 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
-        <v>45435</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
-        <v>45033</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
-        <v>45434</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
-        <v>45505</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
-        <v>45043</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
-        <v>45554</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
-        <v>45726</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>308</v>
-      </c>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
-        <v>45726</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>311</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3489,6 +2483,7 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3497,7 +2492,8 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3506,7 +2502,8 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3515,7 +2512,8 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3524,7 +2522,8 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3533,7 +2532,8 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3542,7 +2542,8 @@
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -3551,32 +2552,812 @@
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H22" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H106" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H96">
+    <sortCondition ref="C7:C96"/>
+    <sortCondition ref="D7:D96"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B501E8-22E3-49FD-8B10-41FFB851A25C}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C9082-AC22-49B6-949D-38C15B9951F8}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3603,40 +3384,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="45">
-        <f>MAX(B6:B378)</f>
-        <v>45722</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B337)</f>
+        <v>45755</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3650,1105 +3431,566 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
       <c r="B7" s="8">
-        <v>45604</v>
+        <v>45435</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
       <c r="B8" s="8">
-        <v>45604</v>
+        <v>45033</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>45574</v>
+        <v>45434</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>45188</v>
+        <v>45505</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <v>45140</v>
+        <v>45043</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>174</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1059</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>45140</v>
+        <v>45554</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <v>45609</v>
+        <v>45726</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
       <c r="B14" s="8">
-        <v>45609</v>
+        <v>45726</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
       <c r="B15" s="8">
-        <v>45567</v>
+        <v>45755</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>254</v>
+        <v>312</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>313</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8">
-        <v>45721</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>301</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>45450</v>
+        <v>45509</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <v>45450</v>
+        <v>45508</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="F18" s="11" t="s">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <v>45196</v>
+        <v>44606</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <v>45357</v>
+        <v>45043</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>173</v>
+        <v>17</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1059</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <v>45715</v>
+        <v>45043</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>45715</v>
+        <v>43613</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>45722</v>
+        <v>43665</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>297</v>
+        <v>337</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <v>44993</v>
+        <v>45035</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="11">
-        <v>777</v>
+        <v>313</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <v>45541</v>
+        <v>45540</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F25" s="11">
-        <v>777</v>
+        <v>343</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <v>44993</v>
+        <v>45545</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="11">
-        <v>777</v>
+        <v>347</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>45532</v>
+        <v>45666</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="11">
-        <v>777</v>
+        <v>348</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>44927</v>
+        <v>44661</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>351</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="G28" s="12" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>44993</v>
+        <v>45664</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="11">
-        <v>777</v>
+        <v>353</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8">
-        <v>45532</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F30" s="11">
-        <v>777</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8">
-        <v>44965</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8">
-        <v>45400</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="8">
-        <v>45342</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8">
-        <v>45342</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="8">
-        <v>44927</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8">
-        <v>45000</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="8">
-        <v>44993</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8">
-        <v>45604</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
-        <v>44565</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="8">
-        <v>45609</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H57" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H16" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{6DAF68C4-ECAD-4CC2-8448-7D43F7496622}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75747C45-B5BA-4D54-921D-87E49D767A20}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B501E8-22E3-49FD-8B10-41FFB851A25C}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4775,40 +4017,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="45">
-        <f>MAX(B6:B372)</f>
-        <v>45725</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B380)</f>
+        <v>45757</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4822,25 +4064,1245 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8">
+        <v>45574</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8">
+        <v>45541</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8">
+        <v>45757</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8">
+        <v>45188</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8">
+        <v>45140</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8">
+        <v>45140</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8">
+        <v>45567</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8">
+        <v>45721</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8">
+        <v>45196</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8">
+        <v>45357</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8">
+        <v>45715</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8">
+        <v>45715</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8">
+        <v>45722</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="11">
+        <v>777</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8">
+        <v>45541</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="11">
+        <v>777</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="11">
+        <v>777</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8">
+        <v>45532</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="11">
+        <v>777</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="11">
+        <v>777</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8">
+        <v>45532</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="11">
+        <v>777</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="8">
+        <v>44965</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8">
+        <v>45400</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8">
+        <v>45342</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8">
+        <v>45342</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8">
+        <v>44927</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8">
+        <v>45000</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8">
+        <v>44993</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="8">
+        <v>44565</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H59" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{6DAF68C4-ECAD-4CC2-8448-7D43F7496622}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75747C45-B5BA-4D54-921D-87E49D767A20}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B373)</f>
+        <v>45740</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5222,188 +5684,190 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="29">
+      <c r="B24" s="37">
         <v>45335</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="42" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="8">
+      <c r="B25" s="37">
         <v>45663</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="42" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="16">
-        <v>45127</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="8">
+        <v>45740</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
-        <v>45014</v>
+        <v>45127</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>45014</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E28" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F28" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H28" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="8">
         <v>45671</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="36">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="31">
         <v>44620</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C30" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D30" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E30" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F30" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H30" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
         <v>45318</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F31" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
-        <v>44967</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>45232</v>
+        <v>44967</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>37</v>
@@ -5412,44 +5876,42 @@
         <v>94</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>44851</v>
+      <c r="B33" s="8">
+        <v>45232</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>49</v>
+      <c r="D33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="16">
-        <v>45139</v>
+        <v>44851</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>37</v>
@@ -5457,14 +5919,14 @@
       <c r="D34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>84</v>
@@ -5472,25 +5934,25 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C35" s="13" t="s">
+        <v>45139</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>24</v>
+      <c r="D35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -5506,82 +5968,84 @@
       <c r="E36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
-        <v>45362</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
-        <v>45161</v>
+        <v>45362</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="16">
-        <v>44958</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="16">
-        <v>45488</v>
+        <v>44958</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>37</v>
@@ -5589,11 +6053,11 @@
       <c r="D40" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>68</v>
+      <c r="E40" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>34</v>
@@ -5602,79 +6066,91 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="16">
-        <v>45120</v>
+        <v>45488</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="16">
+        <v>45120</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E42" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H42" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
         <v>45310</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E43" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="16">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="16">
         <v>44927</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E44" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F44" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H44" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
@@ -5739,8 +6215,17 @@
       <c r="G51" s="12"/>
       <c r="H51" s="13"/>
     </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H51" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H52" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -5753,32 +6238,33 @@
     <hyperlink ref="F24" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
     <hyperlink ref="E18" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
     <hyperlink ref="H18" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
-    <hyperlink ref="E27" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
-    <hyperlink ref="H27" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
-    <hyperlink ref="E39" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
-    <hyperlink ref="E41" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
-    <hyperlink ref="E43" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
+    <hyperlink ref="E28" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
+    <hyperlink ref="E40" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
+    <hyperlink ref="E42" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
+    <hyperlink ref="E44" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
-    <hyperlink ref="E29" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
-    <hyperlink ref="F29" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
-    <hyperlink ref="F32" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
-    <hyperlink ref="E36" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
-    <hyperlink ref="E42" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
-    <hyperlink ref="E30" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
-    <hyperlink ref="F30" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
+    <hyperlink ref="E30" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
+    <hyperlink ref="F30" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
+    <hyperlink ref="E36" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
+    <hyperlink ref="F33" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
+    <hyperlink ref="E43" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
+    <hyperlink ref="E31" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
+    <hyperlink ref="F31" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
     <hyperlink ref="E16" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
     <hyperlink ref="F16" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
-    <hyperlink ref="E33" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
-    <hyperlink ref="E40" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
+    <hyperlink ref="E34" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
+    <hyperlink ref="E41" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
     <hyperlink ref="F25" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
     <hyperlink ref="F12" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
     <hyperlink ref="H9" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
+    <hyperlink ref="F26" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -5818,40 +6304,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="45">
+      <c r="B4" s="47">
         <f>MAX(B6:B339)</f>
         <v>45481</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5865,25 +6351,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5965,7 +6451,7 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="30" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="14" t="s">

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D87DCA-8994-4D15-897F-A434C4C85BA1}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA77A725-6C93-4D10-BF45-CB880247E506}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$16</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="369">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -636,16 +636,10 @@
     <t>CHECADOR</t>
   </si>
   <si>
-    <t>http://192.168.0.18/</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>Iteknia2016.</t>
-  </si>
-  <si>
-    <t>En el checador te pide la IP y el puerto en configuracion del servidor, el puerto es el 80.</t>
   </si>
   <si>
     <t>CHECADOR DB</t>
@@ -1199,6 +1193,39 @@
   </si>
   <si>
     <t>Equipo donde esta sistema checador.</t>
+  </si>
+  <si>
+    <t>Mediante Any y en el equipo en Navegador WEB</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO </t>
+  </si>
+  <si>
+    <t>zarkinsoporte@gmail.com</t>
+  </si>
+  <si>
+    <t>Gmail.com</t>
+  </si>
+  <si>
+    <t>Usado en SIZ</t>
+  </si>
+  <si>
+    <t>Zarkin.com</t>
+  </si>
+  <si>
+    <t>sistemas@zarkin.com</t>
+  </si>
+  <si>
+    <t>Correo Generico uso por Sistemas.</t>
+  </si>
+  <si>
+    <t>Usuario Oddo/</t>
+  </si>
+  <si>
+    <t>Victoria%77</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1326,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1508,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1872,6 +1911,7 @@
       <sheetName val="DDD"/>
       <sheetName val="VACACIONES"/>
       <sheetName val="VIVIENDA"/>
+      <sheetName val="VIVIENDA (2)"/>
       <sheetName val="TERTIUS"/>
     </sheetNames>
     <sheetDataSet>
@@ -1987,6 +2027,7 @@
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2323,40 +2364,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B427)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3353,11 +3394,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3384,40 +3425,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
-        <f>MAX(B6:B337)</f>
-        <v>45755</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="49">
+        <f>MAX(B6:B338)</f>
+        <v>45768</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3597,19 +3638,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,19 +3661,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3643,120 +3684,130 @@
         <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="G15" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="8">
+        <v>45768</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>45509</v>
+        <v>45768</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>323</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="G17" s="12"/>
       <c r="H17" s="13" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <v>45508</v>
+        <v>45509</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <v>44606</v>
+        <v>45508</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <v>45043</v>
+        <v>44606</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1059</v>
+        <v>327</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -3770,13 +3821,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>333</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1059</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>15</v>
@@ -3784,166 +3835,168 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>43613</v>
+        <v>45043</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>43665</v>
+        <v>43613</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <v>45035</v>
+        <v>43665</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <v>45540</v>
+        <v>45035</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <v>45545</v>
+        <v>45540</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>5</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>45666</v>
+        <v>45545</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>350</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>44661</v>
+        <v>45666</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>45664</v>
+        <v>44661</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4</v>
@@ -3952,16 +4005,37 @@
         <v>5</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
+        <v>45664</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3975,9 +4049,11 @@
     <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
     <hyperlink ref="E15" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
+    <hyperlink ref="E16" r:id="rId4" display="zarkinsoporte@gmail.com" xr:uid="{2A7B02A3-3463-45FA-AE4B-C33F6CF7FA15}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{E3462E40-C391-4B83-8473-009ED89E7CEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3986,11 +4062,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4017,40 +4093,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
-        <f>MAX(B6:B380)</f>
-        <v>45757</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="49">
+        <f>MAX(B6:B381)</f>
+        <v>45770</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4146,16 +4222,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4170,16 +4246,16 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4194,16 +4270,16 @@
         <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4229,7 +4305,7 @@
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="8">
-        <v>45140</v>
+        <v>45757</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>32</v>
@@ -4237,17 +4313,17 @@
       <c r="D13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4259,16 +4335,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -4281,19 +4357,19 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4305,19 +4381,19 @@
         <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4329,19 +4405,19 @@
         <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="G17" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4353,15 +4429,15 @@
         <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>299</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>301</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4373,7 +4449,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>24</v>
@@ -4382,10 +4458,10 @@
         <v>165</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4397,17 +4473,17 @@
         <v>32</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4419,17 +4495,17 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4441,16 +4517,16 @@
         <v>32</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -4463,19 +4539,19 @@
         <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4487,19 +4563,19 @@
         <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>293</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4511,19 +4587,19 @@
         <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="H25" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4535,19 +4611,19 @@
         <v>32</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F26" s="11">
         <v>777</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4559,19 +4635,19 @@
         <v>32</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F27" s="11">
         <v>777</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4583,19 +4659,19 @@
         <v>32</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F28" s="11">
         <v>777</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4607,19 +4683,19 @@
         <v>32</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F29" s="11">
         <v>777</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4631,14 +4707,14 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -4651,19 +4727,19 @@
         <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F31" s="11">
         <v>777</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4675,19 +4751,19 @@
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F32" s="11">
         <v>777</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4699,19 +4775,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G33" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="H33" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4723,19 +4799,19 @@
         <v>32</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="G34" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="H34" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4747,43 +4823,43 @@
         <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8">
-        <v>45342</v>
+        <v>45770</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4795,59 +4871,63 @@
         <v>32</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="H37" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="8">
-        <v>44927</v>
+        <v>45342</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>202</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" s="8">
-        <v>44993</v>
+        <v>44927</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="H39" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4859,15 +4939,15 @@
         <v>32</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4879,39 +4959,35 @@
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8">
-        <v>44927</v>
+        <v>44993</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>276</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="13" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -4923,88 +4999,90 @@
         <v>32</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="8">
-        <v>44993</v>
+        <v>44927</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="8">
-        <v>45000</v>
+        <v>44993</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>231</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="8">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H46" s="13"/>
+        <v>226</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
@@ -5015,37 +5093,38 @@
         <v>32</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
       <c r="B48" s="8">
-        <v>45604</v>
+        <v>44993</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H48" s="13"/>
     </row>
@@ -5057,13 +5136,13 @@
         <v>32</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>28</v>
@@ -5072,55 +5151,67 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
-        <v>44565</v>
+        <v>45604</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>243</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
-        <v>45609</v>
+        <v>44565</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="G52" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -5186,8 +5277,17 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
     </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H59" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H60" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -5195,9 +5295,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1" xr:uid="{6DAF68C4-ECAD-4CC2-8448-7D43F7496622}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{861633A6-0E3C-4369-809B-94928B267597}"/>
+    <hyperlink ref="F36" r:id="rId3" xr:uid="{4DE531C6-99A6-4C9C-8B19-4C88B5185EC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5208,9 +5310,9 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5237,40 +5339,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B373)</f>
         <v>45740</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5360,19 +5462,19 @@
         <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5605,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E20" s="10">
         <v>-23</v>
@@ -5671,7 +5773,7 @@
         <v>122</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>22</v>
@@ -5680,7 +5782,7 @@
         <v>120</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -5806,17 +5908,17 @@
         <v>37</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -6081,7 +6183,7 @@
         <v>67</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="H41" s="13"/>
     </row>
@@ -6304,40 +6406,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B339)</f>
         <v>45481</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA77A725-6C93-4D10-BF45-CB880247E506}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9576964-5C95-4169-BE15-0186CCCCAC08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$16</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="376">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -1226,6 +1226,27 @@
   </si>
   <si>
     <t>Victoria%77</t>
+  </si>
+  <si>
+    <t>GITLAB</t>
+  </si>
+  <si>
+    <t>https://gitlab</t>
+  </si>
+  <si>
+    <t>ID: 27654524</t>
+  </si>
+  <si>
+    <t>MACROS</t>
+  </si>
+  <si>
+    <t>Apertura de Macros estan en solo lecturas.</t>
+  </si>
+  <si>
+    <t>SAL2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Editar en el Excel </t>
   </si>
 </sst>
 </file>
@@ -1326,18 +1347,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1386,7 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,56 +1479,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1915,8 +1924,8 @@
       <sheetName val="TERTIUS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="6">
           <cell r="B6" t="str">
@@ -2019,18 +2028,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2364,40 +2377,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f>MAX(B6:B427)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2411,25 +2424,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3394,11 +3407,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3425,40 +3438,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
-        <f>MAX(B6:B338)</f>
-        <v>45768</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B339)</f>
+        <v>45790</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3472,25 +3485,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4017,24 +4030,47 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>45664</v>
+        <v>45790</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
+        <v>45664</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4093,40 +4129,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f>MAX(B6:B381)</f>
         <v>45770</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4140,25 +4176,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4313,13 +4349,13 @@
       <c r="D13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="40" t="s">
         <v>173</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -4431,7 +4467,7 @@
       <c r="D18" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="31" t="s">
         <v>299</v>
       </c>
       <c r="F18" s="11"/>
@@ -5308,11 +5344,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5339,40 +5375,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
-        <f>MAX(B6:B373)</f>
-        <v>45740</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B374)</f>
+        <v>45782</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5386,25 +5422,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5786,211 +5822,213 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="37">
+      <c r="B24" s="8">
+        <v>45782</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="32">
         <v>45335</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D25" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F25" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G25" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H25" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="37">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="32">
         <v>45663</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C26" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D26" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F26" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H26" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
         <v>45740</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
-        <v>45127</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
-        <v>45014</v>
+        <v>45127</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>45014</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H29" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
         <v>45671</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="31">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="41">
         <v>44620</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C31" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D31" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E31" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F31" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G31" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H31" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
         <v>45318</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="8">
-        <v>44967</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <v>45232</v>
+        <v>44967</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>37</v>
@@ -5999,44 +6037,42 @@
         <v>94</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <v>44851</v>
+      <c r="B34" s="8">
+        <v>45232</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>87</v>
+      <c r="D34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>49</v>
+        <v>92</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
-        <v>45139</v>
+        <v>44851</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>37</v>
@@ -6044,14 +6080,14 @@
       <c r="D35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>84</v>
@@ -6059,25 +6095,25 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C36" s="13" t="s">
+        <v>45139</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>24</v>
+      <c r="D36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -6093,82 +6129,84 @@
       <c r="E37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="8">
-        <v>45362</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
-        <v>45161</v>
+        <v>45362</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="16">
-        <v>44958</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G40" s="14"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="16">
-        <v>45488</v>
+        <v>44958</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>37</v>
@@ -6176,92 +6214,104 @@
       <c r="D41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>68</v>
+      <c r="E41" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="16">
-        <v>45120</v>
+        <v>45488</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="16">
+        <v>45120</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E43" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G43" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H43" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
         <v>45310</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E44" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="16">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="16">
         <v>44927</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E45" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H45" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
@@ -6326,8 +6376,17 @@
       <c r="G52" s="12"/>
       <c r="H52" s="13"/>
     </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H52" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H53" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -6337,36 +6396,37 @@
     <hyperlink ref="E13" r:id="rId1" xr:uid="{15C086F2-F597-4D51-B2E7-3FAD96221D78}"/>
     <hyperlink ref="E14" r:id="rId2" xr:uid="{8BB978DC-E232-48F0-9939-636AAC0E6406}"/>
     <hyperlink ref="F17" r:id="rId3" xr:uid="{92544A31-8743-4333-B41A-FC5AFE5A1056}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
+    <hyperlink ref="F25" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
     <hyperlink ref="E18" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
     <hyperlink ref="H18" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
-    <hyperlink ref="E28" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
-    <hyperlink ref="E40" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
-    <hyperlink ref="E42" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
-    <hyperlink ref="E44" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
+    <hyperlink ref="H29" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
+    <hyperlink ref="E41" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
+    <hyperlink ref="E43" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
+    <hyperlink ref="E45" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
-    <hyperlink ref="E30" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
-    <hyperlink ref="F30" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
-    <hyperlink ref="E36" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
-    <hyperlink ref="F33" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
-    <hyperlink ref="E37" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
-    <hyperlink ref="E43" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
-    <hyperlink ref="E31" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
-    <hyperlink ref="F31" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
+    <hyperlink ref="E31" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
+    <hyperlink ref="F31" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
+    <hyperlink ref="E37" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
+    <hyperlink ref="F34" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
+    <hyperlink ref="E38" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
+    <hyperlink ref="E44" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
+    <hyperlink ref="E32" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
+    <hyperlink ref="F32" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
     <hyperlink ref="E16" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
     <hyperlink ref="F16" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
-    <hyperlink ref="E41" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
-    <hyperlink ref="F25" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
+    <hyperlink ref="E35" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
+    <hyperlink ref="E42" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
     <hyperlink ref="F12" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
     <hyperlink ref="H9" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
-    <hyperlink ref="F26" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
+    <hyperlink ref="E24" r:id="rId29" xr:uid="{0EF4AF42-0D81-447F-93B9-DF4FCF6D4CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
-  <drawing r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <drawing r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -6406,40 +6466,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f>MAX(B6:B339)</f>
         <v>45481</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -6453,25 +6513,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6553,7 +6613,7 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="14" t="s">

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9576964-5C95-4169-BE15-0186CCCCAC08}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400D7410-1930-4E41-8B34-7956873103E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="384">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -1247,6 +1247,30 @@
   </si>
   <si>
     <t xml:space="preserve">Para Editar en el Excel </t>
+  </si>
+  <si>
+    <t>Escritorio con Win 8</t>
+  </si>
+  <si>
+    <t>https://webmail.gestiondecorreo.com/login</t>
+  </si>
+  <si>
+    <t>http://itekniaapp.serveftp.com:8080/inicio</t>
+  </si>
+  <si>
+    <t>http://itekniaapp.serveftp.com:8080/opciones</t>
+  </si>
+  <si>
+    <t>Cotizador de Cortinas</t>
+  </si>
+  <si>
+    <t>Opciones para Cotizaciones</t>
+  </si>
+  <si>
+    <t>itk.reportik@gmail.com</t>
+  </si>
+  <si>
+    <t>Usuario Cliente Cotizador y Tienda</t>
   </si>
 </sst>
 </file>
@@ -1920,12 +1944,11 @@
       <sheetName val="DDD"/>
       <sheetName val="VACACIONES"/>
       <sheetName val="VIVIENDA"/>
-      <sheetName val="VIVIENDA (2)"/>
       <sheetName val="TERTIUS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="6">
           <cell r="B6" t="str">
@@ -2028,15 +2051,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3407,11 +3429,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3426,7 +3448,7 @@
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3436,7 +3458,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="44" t="s">
         <v>165</v>
@@ -3448,7 +3470,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="46" t="s">
         <v>164</v>
@@ -3460,10 +3482,10 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="47">
-        <f>MAX(B6:B339)</f>
+        <f>MAX(B6:B340)</f>
         <v>45790</v>
       </c>
       <c r="C4" s="45"/>
@@ -3472,8 +3494,11 @@
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -3483,7 +3508,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="30" t="s">
         <v>163</v>
@@ -3507,7 +3532,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>45435</v>
       </c>
@@ -3530,7 +3555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>45033</v>
       </c>
@@ -3553,7 +3578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>45434</v>
       </c>
@@ -3574,7 +3599,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>45505</v>
       </c>
@@ -3597,7 +3622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>45043</v>
       </c>
@@ -3620,7 +3645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>45554</v>
       </c>
@@ -3643,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>45726</v>
       </c>
@@ -3666,7 +3691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>45726</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>45755</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>45768</v>
       </c>
@@ -4009,68 +4034,91 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>44661</v>
+        <v>45666</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>350</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>45790</v>
+        <v>44661</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>350</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>375</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>45664</v>
+        <v>45790</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <v>45664</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4100,9 +4148,9 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5251,31 +5299,73 @@
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
+      <c r="B53" s="8">
+        <v>45753</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
+      <c r="B54" s="8">
+        <v>45753</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
+      <c r="B55" s="8">
+        <v>45753</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
@@ -5333,9 +5423,14 @@
     <hyperlink ref="E18" r:id="rId1" xr:uid="{6DAF68C4-ECAD-4CC2-8448-7D43F7496622}"/>
     <hyperlink ref="E13" r:id="rId2" xr:uid="{861633A6-0E3C-4369-809B-94928B267597}"/>
     <hyperlink ref="F36" r:id="rId3" xr:uid="{4DE531C6-99A6-4C9C-8B19-4C88B5185EC6}"/>
+    <hyperlink ref="E53" r:id="rId4" xr:uid="{2471DC2A-56AC-4F1A-A757-5E6A56562DA8}"/>
+    <hyperlink ref="E54" r:id="rId5" xr:uid="{8ECCA7BD-F22F-48FD-B64C-A98463D42905}"/>
+    <hyperlink ref="F53" r:id="rId6" xr:uid="{C0FE7082-D516-494B-BA95-4A8387AFF75D}"/>
+    <hyperlink ref="F54" r:id="rId7" xr:uid="{5917506B-1068-4DA5-89AA-F27F037AE325}"/>
+    <hyperlink ref="E55" r:id="rId8" xr:uid="{24389F56-00DD-47EA-A8DC-02A43544EB26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5346,8 +5441,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400D7410-1930-4E41-8B34-7956873103E5}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A079E01A-1C7B-4CB8-9A16-AC4FFB364E88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
@@ -4149,8 +4149,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5442,8 +5442,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A079E01A-1C7B-4CB8-9A16-AC4FFB364E88}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5142F13-40C2-46B6-914E-614E7E96D038}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$19</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS" localSheetId="2">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS" localSheetId="3">[1]CATEGORIAS!$C$8:$C$20</definedName>
@@ -93,7 +93,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{B10790FA-3AC8-490B-B749-585DB9CB49DD}">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{B10790FA-3AC8-490B-B749-585DB9CB49DD}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="399">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>Vicente_Cueva</t>
   </si>
   <si>
-    <t>Correo: vcuevar@gmail.com</t>
-  </si>
-  <si>
     <t>SIZ</t>
   </si>
   <si>
@@ -1075,9 +1072,6 @@
     <t>Maquina que uso para Iteknia.</t>
   </si>
   <si>
-    <t>Correos Zarkin por la WEB</t>
-  </si>
-  <si>
     <t>http://webmail.zarkin.com</t>
   </si>
   <si>
@@ -1271,6 +1265,57 @@
   </si>
   <si>
     <t>Usuario Cliente Cotizador y Tienda</t>
+  </si>
+  <si>
+    <t>Servidor del Proyecto, por Anydesk</t>
+  </si>
+  <si>
+    <t>193 655 515</t>
+  </si>
+  <si>
+    <t>Zarkin11</t>
+  </si>
+  <si>
+    <t>Productivo de SIZ</t>
+  </si>
+  <si>
+    <t>PIN (Contraseña de Windows es nada)</t>
+  </si>
+  <si>
+    <t>C:\Users\SISTEMA2\Documents\Archivos de Outlook</t>
+  </si>
+  <si>
+    <t>Vicente Cueva Ramirez - SISTEMA2</t>
+  </si>
+  <si>
+    <t>Base de Datos de Outlook</t>
+  </si>
+  <si>
+    <t>Escritorio 1013</t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
+    <t>SOPORTESAP</t>
+  </si>
+  <si>
+    <t>Zarkin2024</t>
+  </si>
+  <si>
+    <t>Acceso para usuario Zarkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente </t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>USUARIOS LAPTOP DE ZARKIN</t>
+  </si>
+  <si>
+    <t>Ingreso con Gogle.</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,6 +1592,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2069,9 +2118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2109,7 +2158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2215,7 +2264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2357,7 +2406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2399,40 +2448,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B427)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3429,11 +3478,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3460,42 +3509,42 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
-        <f>MAX(B6:B340)</f>
-        <v>45790</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="49">
+        <f>MAX(B6:B344)</f>
+        <v>45831</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -3601,228 +3650,228 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>45505</v>
+        <v>45768</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>10</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <v>45043</v>
+        <v>45768</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>45554</v>
+        <v>45509</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>6</v>
+        <v>318</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <v>45726</v>
+        <v>45828</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <v>45726</v>
+        <v>45831</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <v>45755</v>
+        <v>45828</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>45768</v>
+        <v>45508</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="H16" s="13" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>45768</v>
+        <v>45666</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G17" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="13" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <v>45509</v>
+        <v>45666</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
-        <v>45508</v>
+        <v>45790</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -3836,39 +3885,39 @@
         <v>14</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <v>45043</v>
+        <v>45505</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1059</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -3882,13 +3931,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>332</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1059</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>15</v>
@@ -3896,234 +3945,334 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>43613</v>
+        <v>45043</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>335</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1059</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>337</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <v>43665</v>
+        <v>45043</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <v>45035</v>
+        <v>45664</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <v>45540</v>
+        <v>44661</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>344</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>45545</v>
+        <v>43613</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>45666</v>
+        <v>43665</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>45666</v>
+        <v>45755</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>44661</v>
+        <v>45035</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>5</v>
+        <v>309</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>45790</v>
+        <v>45540</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>45664</v>
+        <v>45726</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
+        <v>45726</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="8">
+        <v>45554</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>353</v>
-      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="8">
+        <v>45827</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="8">
+        <v>45545</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H16" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H19" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H36">
+    <sortCondition ref="D7:D36"/>
+    <sortCondition ref="E7:E36"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -4131,10 +4280,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
-    <hyperlink ref="E15" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
-    <hyperlink ref="E16" r:id="rId4" display="zarkinsoporte@gmail.com" xr:uid="{2A7B02A3-3463-45FA-AE4B-C33F6CF7FA15}"/>
-    <hyperlink ref="F17" r:id="rId5" xr:uid="{E3462E40-C391-4B83-8473-009ED89E7CEE}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
+    <hyperlink ref="E10" r:id="rId4" display="zarkinsoporte@gmail.com" xr:uid="{2A7B02A3-3463-45FA-AE4B-C33F6CF7FA15}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{E3462E40-C391-4B83-8473-009ED89E7CEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
@@ -4148,9 +4297,9 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4177,40 +4326,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B381)</f>
         <v>45770</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4330,16 +4479,16 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4354,16 +4503,16 @@
         <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4398,7 +4547,7 @@
         <v>171</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>172</v>
@@ -4407,7 +4556,7 @@
         <v>173</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4943,7 +5092,7 @@
         <v>34</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5309,16 +5458,16 @@
         <v>297</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>291</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -5332,16 +5481,16 @@
         <v>297</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>291</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -5355,7 +5504,7 @@
         <v>297</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>203</v>
@@ -5364,7 +5513,7 @@
         <v>34</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -5441,9 +5590,9 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5470,40 +5619,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B374)</f>
-        <v>45782</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+        <v>45828</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5586,26 +5735,26 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
-        <v>45725</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="16">
+        <v>44537</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>303</v>
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="19">
+        <v>475869</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5619,194 +5768,194 @@
         <v>56</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="19">
-        <v>475869</v>
+      <c r="H10" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="16">
-        <v>44537</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="8">
+        <v>45685</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>118</v>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
-        <v>45685</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="16">
+        <v>45075</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
-        <v>45075</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="8">
+        <v>45436</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>144</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <v>45436</v>
+        <v>45385</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <v>45385</v>
+        <v>45323</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="13" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>45323</v>
+        <v>45069</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>45069</v>
+        <v>45037</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
-        <v>45037</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>128</v>
+      <c r="D18" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -5872,7 +6021,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>44958</v>
+        <v>44215</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>37</v>
@@ -5880,22 +6029,22 @@
       <c r="D22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>121</v>
+      <c r="E22" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>44215</v>
+        <v>44958</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>37</v>
@@ -5903,17 +6052,17 @@
       <c r="D23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>281</v>
+      <c r="E23" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>120</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -5924,10 +6073,10 @@
         <v>37</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>22</v>
@@ -5936,7 +6085,7 @@
         <v>120</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -6009,142 +6158,144 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>45127</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="8">
+        <v>45828</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>45014</v>
+        <v>45127</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>45014</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H30" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
         <v>45671</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="41">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="41">
         <v>44620</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D32" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E32" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G32" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H32" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
         <v>45318</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="8">
-        <v>44967</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <v>45232</v>
+        <v>44967</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>37</v>
@@ -6153,44 +6304,42 @@
         <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>92</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="16">
-        <v>44851</v>
+      <c r="B35" s="8">
+        <v>45232</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>87</v>
+      <c r="D35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>49</v>
+        <v>92</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
-        <v>45139</v>
+        <v>44851</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>37</v>
@@ -6198,14 +6347,14 @@
       <c r="D36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>84</v>
@@ -6213,25 +6362,25 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C37" s="13" t="s">
+        <v>45139</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>81</v>
+      <c r="D37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -6254,70 +6403,72 @@
         <v>34</v>
       </c>
       <c r="H38" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="8">
-        <v>45362</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
-        <v>45161</v>
+        <v>45362</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F41" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="16">
-        <v>44958</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G41" s="14"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -6337,85 +6488,97 @@
         <v>67</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
-        <v>45120</v>
+        <v>44958</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="16">
+        <v>45120</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H44" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
         <v>45310</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E45" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="16">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="16">
         <v>44927</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E46" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
@@ -6482,46 +6645,51 @@
     </row>
   </sheetData>
   <autoFilter ref="B6:H53" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H46">
+    <sortCondition ref="D7:D46"/>
+    <sortCondition ref="E7:E46"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{15C086F2-F597-4D51-B2E7-3FAD96221D78}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{8BB978DC-E232-48F0-9939-636AAC0E6406}"/>
-    <hyperlink ref="F17" r:id="rId3" xr:uid="{92544A31-8743-4333-B41A-FC5AFE5A1056}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{15C086F2-F597-4D51-B2E7-3FAD96221D78}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{8BB978DC-E232-48F0-9939-636AAC0E6406}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{92544A31-8743-4333-B41A-FC5AFE5A1056}"/>
     <hyperlink ref="F25" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
-    <hyperlink ref="H18" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
-    <hyperlink ref="E29" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
-    <hyperlink ref="H29" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
-    <hyperlink ref="E41" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
-    <hyperlink ref="E43" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
-    <hyperlink ref="E45" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
-    <hyperlink ref="E31" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
-    <hyperlink ref="F31" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
-    <hyperlink ref="E37" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
-    <hyperlink ref="F34" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
-    <hyperlink ref="E38" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
-    <hyperlink ref="E44" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
-    <hyperlink ref="E32" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
-    <hyperlink ref="F32" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
-    <hyperlink ref="E16" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
-    <hyperlink ref="F16" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
-    <hyperlink ref="E35" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
+    <hyperlink ref="E30" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
+    <hyperlink ref="H30" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
+    <hyperlink ref="E43" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
+    <hyperlink ref="E44" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
+    <hyperlink ref="E46" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
+    <hyperlink ref="E32" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
+    <hyperlink ref="F32" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
+    <hyperlink ref="E38" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
+    <hyperlink ref="F35" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
+    <hyperlink ref="E39" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
+    <hyperlink ref="E45" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
+    <hyperlink ref="E33" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
+    <hyperlink ref="F33" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
+    <hyperlink ref="E15" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
+    <hyperlink ref="E36" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
     <hyperlink ref="E42" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
     <hyperlink ref="F26" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
-    <hyperlink ref="F12" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
-    <hyperlink ref="H9" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
+    <hyperlink ref="F11" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
+    <hyperlink ref="H18" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
     <hyperlink ref="F27" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
     <hyperlink ref="E24" r:id="rId29" xr:uid="{0EF4AF42-0D81-447F-93B9-DF4FCF6D4CC6}"/>
+    <hyperlink ref="F28" r:id="rId30" xr:uid="{017BC6FC-67D7-4A13-A0A6-7BD83821710D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
-  <drawing r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
+  <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -6561,40 +6729,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <f>MAX(B6:B339)</f>
         <v>45481</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5142F13-40C2-46B6-914E-614E7E96D038}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DE86C0-5C8A-4073-A6E2-9F422DF06806}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCESS" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$19</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
     <definedName name="BANCOS" localSheetId="2">[1]CATEGORIAS!$C$8:$C$20</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="439">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -568,9 +568,6 @@
   </si>
   <si>
     <t>4027-6657-1483-1600</t>
-  </si>
-  <si>
-    <t>Banca Celular</t>
   </si>
   <si>
     <t>Celular 33-3584-1822</t>
@@ -1303,9 +1300,6 @@
     <t>Zarkin2024</t>
   </si>
   <si>
-    <t>Acceso para usuario Zarkin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vicente </t>
   </si>
   <si>
@@ -1316,6 +1310,136 @@
   </si>
   <si>
     <t>Ingreso con Gogle.</t>
+  </si>
+  <si>
+    <t>Acceso para usuario Zarkin
+Preguntas Secretas:
+Nombre de Mascota = 1
+Nombre donde naciste = 2
+Sobre nombre infancia = 3</t>
+  </si>
+  <si>
+    <t>Banca Movil Celular 33-1628-5655</t>
+  </si>
+  <si>
+    <t>150988vy</t>
+  </si>
+  <si>
+    <t>200715 Autorización</t>
+  </si>
+  <si>
+    <t>Banca Movil Celular 33-3584-1822</t>
+  </si>
+  <si>
+    <t>Cuenta Guardadito</t>
+  </si>
+  <si>
+    <t>SIZ SERVIDOR</t>
+  </si>
+  <si>
+    <t>POR ANYDESK</t>
+  </si>
+  <si>
+    <t>@cc3s0*2025</t>
+  </si>
+  <si>
+    <t>SQL (SAP)</t>
+  </si>
+  <si>
+    <t>ZARKIN-088 (10.63.100.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa          </t>
+  </si>
+  <si>
+    <t>Parche SAP 10 FP 2008</t>
+  </si>
+  <si>
+    <t>Menssager</t>
+  </si>
+  <si>
+    <t>Pin 475869</t>
+  </si>
+  <si>
+    <t>Con la FIEL / Ingresar a Buzon Tributario</t>
+  </si>
+  <si>
+    <t>LINKEDIN</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/</t>
+  </si>
+  <si>
+    <t>SIZ SERV. NEW</t>
+  </si>
+  <si>
+    <t>159 692 531 3</t>
+  </si>
+  <si>
+    <t>Zarkin*2025</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Zarkin@2025</t>
+  </si>
+  <si>
+    <t>Nuevo Servidor</t>
+  </si>
+  <si>
+    <t>Proporciono Nicolas a Alberto.</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>USUARIO PRUEBAS DE CALIDAD</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/</t>
+  </si>
+  <si>
+    <t>UDEMY</t>
+  </si>
+  <si>
+    <t>http://187.189.177.39:8085/siz_sa/public/home</t>
+  </si>
+  <si>
+    <t>Puerto habilitado para Nuevo SIZ.</t>
+  </si>
+  <si>
+    <t>Proporciono Nicolas a Alberto. Para pruebas y Productivo.</t>
+  </si>
+  <si>
+    <t>https://www.digitalife.com.mx/</t>
+  </si>
+  <si>
+    <t>DIGITAL LIFE</t>
+  </si>
+  <si>
+    <t>Equipos y Piezas de computación.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1ossNWgH0Ln90W-Lbj2PPYoHkuX9-lRro/edit?usp=sharing&amp;ouid=113773091461979829861&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>COMPARTIDO</t>
+  </si>
+  <si>
+    <t>Archivo de Planeación</t>
+  </si>
+  <si>
+    <t>FARMACIA</t>
+  </si>
+  <si>
+    <t>https://www.farmaciasguadalajara.com/</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,7 +1653,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,9 +1716,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1996,8 +2118,8 @@
       <sheetName val="TERTIUS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="6">
           <cell r="B6" t="str">
@@ -2036,78 +2158,78 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>B_AZTECA</v>
+            <v>ACR_EMAN</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>B_CAJA</v>
+            <v>B_AZTECA</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>B_POPULAR</v>
+            <v>B_CAJA</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>B_SANTANDER</v>
+            <v>B_POPULAR</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>B_VICENTE</v>
+            <v>B_SANTANDER</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>INV_POPULAR</v>
+            <v>B_VICENTE</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>INV_SANTANDER</v>
+            <v>INV_POPULAR</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>INV30_AZTECA</v>
+            <v>INV_SANTANDER</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
-            <v>PLAZ28_AZTECA</v>
+            <v>INV30_AZTECA</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>PLAZ91_AZTECA</v>
+            <v>PLAZ28_AZTECA</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
-            <v>PLAZ92_AZTECA</v>
+            <v>PLAZ91_AZTECA</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19" t="str">
-            <v>TARJETA_TREN</v>
+            <v>PLAZ92_AZTECA</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
-            <v>VIVERO</v>
+            <v>TARJETA_TREN</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2118,9 +2240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2158,7 +2280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2264,7 +2386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2406,7 +2528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2448,40 +2570,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f>MAX(B6:B427)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2495,26 +2617,26 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>157</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3478,11 +3600,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3509,42 +3631,42 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
-        <f>MAX(B6:B344)</f>
-        <v>45831</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B345)</f>
+        <v>45880</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -3559,26 +3681,26 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>157</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3591,7 +3713,7 @@
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -3600,7 +3722,7 @@
       <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3656,17 +3778,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>359</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3677,17 +3799,17 @@
         <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>363</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3698,19 +3820,19 @@
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3721,22 +3843,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>45831</v>
       </c>
@@ -3744,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>397</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3767,19 +3889,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3790,19 +3912,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -3813,19 +3935,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>322</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -3836,19 +3958,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -3859,19 +3981,19 @@
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -3885,16 +4007,16 @@
         <v>14</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -3977,13 +4099,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>15</v>
@@ -4000,16 +4122,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -4023,10 +4145,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>114</v>
@@ -4041,19 +4163,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>334</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -4064,19 +4186,19 @@
         <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="G28" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -4087,19 +4209,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -4110,19 +4232,19 @@
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -4133,19 +4255,19 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
@@ -4156,19 +4278,19 @@
         <v>4</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -4179,19 +4301,19 @@
         <v>4</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -4225,19 +4347,19 @@
         <v>4</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -4251,7 +4373,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>7</v>
@@ -4263,9 +4385,303 @@
         <v>5</v>
       </c>
     </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
+        <v>45866</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <v>45835</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="8">
+        <v>45835</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <v>45835</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
+        <v>45880</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <v>45854</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
+        <v>45854</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
+        <v>45862</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
+        <v>45880</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:H19" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
@@ -4284,9 +4700,13 @@
     <hyperlink ref="E29" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
     <hyperlink ref="E10" r:id="rId4" display="zarkinsoporte@gmail.com" xr:uid="{2A7B02A3-3463-45FA-AE4B-C33F6CF7FA15}"/>
     <hyperlink ref="F11" r:id="rId5" xr:uid="{E3462E40-C391-4B83-8473-009ED89E7CEE}"/>
+    <hyperlink ref="G43" r:id="rId6" xr:uid="{A009C80D-5058-4AFD-9D0B-55B518C466B9}"/>
+    <hyperlink ref="G44" r:id="rId7" display="Zarkin@2025" xr:uid="{917C7D59-7AFC-418D-B624-A9A855335A83}"/>
+    <hyperlink ref="E37" r:id="rId8" xr:uid="{0331E833-D86E-4B37-A89F-9FBF09AD7385}"/>
+    <hyperlink ref="F41" r:id="rId9" xr:uid="{202FA394-F494-410C-A882-D2CFF22984C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4298,8 +4718,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4326,40 +4746,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f>MAX(B6:B381)</f>
         <v>45770</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4373,26 +4793,26 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>157</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4431,10 +4851,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>28</v>
@@ -4455,16 +4875,16 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4479,16 +4899,16 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4503,16 +4923,16 @@
         <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,15 +4944,15 @@
         <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4544,19 +4964,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>173</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4568,16 +4988,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -4590,19 +5010,19 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4614,19 +5034,19 @@
         <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4638,19 +5058,19 @@
         <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4662,15 +5082,15 @@
         <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>298</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4682,19 +5102,19 @@
         <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4706,17 +5126,17 @@
         <v>32</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4728,17 +5148,17 @@
         <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4750,16 +5170,16 @@
         <v>32</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -4772,19 +5192,19 @@
         <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4796,19 +5216,19 @@
         <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>291</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4820,19 +5240,19 @@
         <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4844,19 +5264,19 @@
         <v>32</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="F26" s="11">
         <v>777</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4868,19 +5288,19 @@
         <v>32</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" s="11">
         <v>777</v>
       </c>
       <c r="G27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4892,19 +5312,19 @@
         <v>32</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="F28" s="11">
         <v>777</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4916,19 +5336,19 @@
         <v>32</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F29" s="11">
         <v>777</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4940,14 +5360,14 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -4960,19 +5380,19 @@
         <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="F31" s="11">
         <v>777</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4984,19 +5404,19 @@
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F32" s="11">
         <v>777</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -5008,19 +5428,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5032,19 +5452,19 @@
         <v>32</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5056,19 +5476,19 @@
         <v>32</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5080,10 +5500,10 @@
         <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>115</v>
@@ -5092,7 +5512,7 @@
         <v>34</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5104,19 +5524,19 @@
         <v>32</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5128,15 +5548,15 @@
         <v>32</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5148,19 +5568,19 @@
         <v>32</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5172,15 +5592,15 @@
         <v>32</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -5192,15 +5612,15 @@
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -5212,15 +5632,15 @@
         <v>32</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -5232,19 +5652,19 @@
         <v>32</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>274</v>
-      </c>
       <c r="H43" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -5256,19 +5676,19 @@
         <v>32</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5280,16 +5700,16 @@
         <v>32</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -5302,19 +5722,19 @@
         <v>32</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -5326,16 +5746,16 @@
         <v>32</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H47" s="13"/>
     </row>
@@ -5348,16 +5768,16 @@
         <v>32</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H48" s="13"/>
     </row>
@@ -5369,13 +5789,13 @@
         <v>32</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>28</v>
@@ -5390,13 +5810,13 @@
         <v>32</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>28</v>
@@ -5411,19 +5831,19 @@
         <v>32</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="G51" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
@@ -5434,16 +5854,16 @@
         <v>32</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="G52" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="H52" s="13"/>
     </row>
@@ -5455,19 +5875,19 @@
         <v>32</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
@@ -5478,19 +5898,19 @@
         <v>32</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -5501,19 +5921,19 @@
         <v>32</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
@@ -5588,11 +6008,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5619,40 +6039,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
-        <f>MAX(B6:B374)</f>
-        <v>45828</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B375)</f>
+        <v>45880</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -5666,26 +6086,26 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>157</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5696,19 +6116,19 @@
         <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5744,8 +6164,8 @@
       <c r="D9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>151</v>
+      <c r="E9" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>150</v>
@@ -5767,7 +6187,7 @@
       <c r="D10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>149</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -5790,7 +6210,7 @@
       <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="20" t="s">
@@ -5813,7 +6233,7 @@
       <c r="D12" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="13" t="s">
         <v>145</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -5836,7 +6256,7 @@
       <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="13" t="s">
         <v>143</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -5857,10 +6277,10 @@
       <c r="D14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -5880,10 +6300,10 @@
       <c r="D15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="14"/>
@@ -5901,10 +6321,10 @@
       <c r="D16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -5922,7 +6342,7 @@
       <c r="D17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>128</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -5931,7 +6351,7 @@
       <c r="G17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5943,19 +6363,19 @@
         <v>37</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -5971,7 +6391,7 @@
       <c r="E19" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -5981,70 +6401,70 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <v>45497</v>
+        <v>45845</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="10">
-        <v>-23</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <v>44564</v>
+        <v>45497</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>123</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-23</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>44215</v>
+        <v>44564</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>281</v>
+        <v>125</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>282</v>
+        <v>34</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
-        <v>44958</v>
+        <v>44215</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>37</v>
@@ -6052,114 +6472,114 @@
       <c r="D23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>121</v>
+      <c r="E23" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>120</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
-        <v>45782</v>
+        <v>44958</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>368</v>
+        <v>122</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="14" t="s">
         <v>120</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
+      <c r="B25" s="8">
+        <v>45782</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="31">
         <v>45335</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F26" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G26" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="32">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="31">
         <v>45663</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G27" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="8">
-        <v>45740</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>45828</v>
+        <v>45740</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>37</v>
@@ -6174,446 +6594,496 @@
         <v>115</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="8">
+        <v>45828</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <v>45127</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="H29" s="13" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
-        <v>45014</v>
+        <v>45127</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>45014</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <v>45847</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
         <v>45671</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D33" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="41">
-        <v>44620</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>45318</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="40">
+        <v>44620</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
+        <v>45318</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="8">
         <v>44967</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="8">
-        <v>45232</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="16">
-        <v>44851</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>49</v>
+      <c r="D36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="16">
-        <v>45139</v>
+      <c r="B37" s="8">
+        <v>45232</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>87</v>
+      <c r="D37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="16">
-        <v>44930</v>
-      </c>
-      <c r="C38" s="13" t="s">
+        <v>44851</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>81</v>
+      <c r="D38" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="16">
+        <v>45846</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="16">
         <v>44930</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H40" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="16">
+        <v>44930</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
         <v>45362</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F42" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G42" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H42" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
         <v>45161</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
-        <v>45488</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="16">
-        <v>44958</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G43" s="14"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
-        <v>45120</v>
+        <v>45488</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>63</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="8">
-        <v>45310</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="16">
+        <v>44958</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="13" t="s">
-        <v>60</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="16">
-        <v>44927</v>
+        <v>45120</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>45310</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>45863</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="16">
+        <v>44927</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G49" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H49" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-    </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+      <c r="B50" s="8">
+        <v>45880</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
@@ -6643,11 +7113,20 @@
       <c r="G53" s="12"/>
       <c r="H53" s="13"/>
     </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H53" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H46">
-    <sortCondition ref="D7:D46"/>
-    <sortCondition ref="E7:E46"/>
+  <autoFilter ref="B6:H54" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H49">
+    <sortCondition ref="D7:D49"/>
+    <sortCondition ref="E7:E49"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
@@ -6658,38 +7137,40 @@
     <hyperlink ref="E12" r:id="rId1" xr:uid="{15C086F2-F597-4D51-B2E7-3FAD96221D78}"/>
     <hyperlink ref="E13" r:id="rId2" xr:uid="{8BB978DC-E232-48F0-9939-636AAC0E6406}"/>
     <hyperlink ref="F16" r:id="rId3" xr:uid="{92544A31-8743-4333-B41A-FC5AFE5A1056}"/>
-    <hyperlink ref="F25" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
+    <hyperlink ref="F26" r:id="rId4" xr:uid="{82D17D54-F1FB-4528-8C20-0FDDE784D3DA}"/>
     <hyperlink ref="E17" r:id="rId5" xr:uid="{EAA12730-E964-4FF6-8B15-29788EDF5E5A}"/>
     <hyperlink ref="H17" r:id="rId6" xr:uid="{6126EC3D-FD40-4669-A1D5-C19D1CA3EBFE}"/>
-    <hyperlink ref="E30" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
-    <hyperlink ref="H30" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
-    <hyperlink ref="E43" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
-    <hyperlink ref="E44" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
-    <hyperlink ref="E46" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
+    <hyperlink ref="E31" r:id="rId7" xr:uid="{DC0A551E-2043-4838-8B1D-E6890D4FF633}"/>
+    <hyperlink ref="H31" r:id="rId8" xr:uid="{AF14144D-3EEB-40CC-BAC6-8BA7FEAC55F2}"/>
+    <hyperlink ref="E45" r:id="rId9" xr:uid="{C6C76AED-9C33-4108-B05F-F32A6AE08B52}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{D5A0A6EC-E5D8-4323-869A-4E084BD0B677}"/>
+    <hyperlink ref="E49" r:id="rId11" xr:uid="{69E6FD0B-CCBB-4BB0-9A43-EAB0015DCE11}"/>
     <hyperlink ref="E10" r:id="rId12" xr:uid="{2A9A4DB1-04E3-4AEC-9748-2C41FBA8890F}"/>
-    <hyperlink ref="E32" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
-    <hyperlink ref="F32" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
-    <hyperlink ref="E38" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
-    <hyperlink ref="F35" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
-    <hyperlink ref="E39" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
-    <hyperlink ref="E45" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
-    <hyperlink ref="E33" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
-    <hyperlink ref="F33" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
+    <hyperlink ref="E34" r:id="rId13" xr:uid="{F7C616EB-3A49-4692-9217-779F9011DE23}"/>
+    <hyperlink ref="F34" r:id="rId14" xr:uid="{4B10E67E-EC62-43AA-877D-FB5D2D4285F6}"/>
+    <hyperlink ref="E40" r:id="rId15" xr:uid="{0BF73A89-B92E-425A-898F-37C7CBF042F2}"/>
+    <hyperlink ref="F37" r:id="rId16" xr:uid="{B9116BFB-CDC1-45BA-8013-DFA7870403F1}"/>
+    <hyperlink ref="E41" r:id="rId17" xr:uid="{C6309289-8973-412F-B925-7C6256933BAE}"/>
+    <hyperlink ref="E47" r:id="rId18" xr:uid="{43D3E767-84D7-4B69-8536-7BE78B4A52EE}"/>
+    <hyperlink ref="E35" r:id="rId19" xr:uid="{89E68C26-BCFC-43A5-BFA4-A8E225383626}"/>
+    <hyperlink ref="F35" r:id="rId20" xr:uid="{C2258EE3-C9B0-4308-ACF5-D68174432934}"/>
     <hyperlink ref="E15" r:id="rId21" xr:uid="{24B9D316-C43F-4E45-A3FC-348F1BC5501D}"/>
     <hyperlink ref="F15" r:id="rId22" xr:uid="{CBCE9FA7-4504-4520-B59C-D974CE2099B7}"/>
-    <hyperlink ref="E36" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
-    <hyperlink ref="E42" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
+    <hyperlink ref="E38" r:id="rId23" xr:uid="{A83B458E-37FA-49B6-BB18-91C4B602ED10}"/>
+    <hyperlink ref="E44" r:id="rId24" xr:uid="{882B7AAD-BDFB-4447-9C2B-52348FBCD628}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{8A6EA065-B212-4D58-A0AD-E8262CF84E9F}"/>
     <hyperlink ref="F11" r:id="rId26" xr:uid="{16FC9D2A-4AC9-4E47-9F68-1F6F2F32790A}"/>
     <hyperlink ref="H18" r:id="rId27" display="vcuevar@gmail.com" xr:uid="{2BC56FD7-7E2B-4127-AFB2-59B9E06C1F4A}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
-    <hyperlink ref="E24" r:id="rId29" xr:uid="{0EF4AF42-0D81-447F-93B9-DF4FCF6D4CC6}"/>
-    <hyperlink ref="F28" r:id="rId30" xr:uid="{017BC6FC-67D7-4A13-A0A6-7BD83821710D}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{9CB92F39-AC9F-45F8-AC0B-1815A7C53A4A}"/>
+    <hyperlink ref="E25" r:id="rId29" xr:uid="{0EF4AF42-0D81-447F-93B9-DF4FCF6D4CC6}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{017BC6FC-67D7-4A13-A0A6-7BD83821710D}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{3D286E06-8871-42A2-8A69-3DAB4BED248A}"/>
+    <hyperlink ref="E48" r:id="rId32" xr:uid="{1A05DF65-48E0-4812-9365-0C481CDA4F9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
-  <drawing r:id="rId32"/>
-  <legacyDrawing r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -6698,11 +7179,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6729,40 +7210,40 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="49">
-        <f>MAX(B6:B339)</f>
-        <v>45481</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="47">
+        <f>MAX(B6:B340)</f>
+        <v>45834</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -6776,26 +7257,26 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>157</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6808,7 +7289,7 @@
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="11" t="s">
         <v>55</v>
       </c>
@@ -6821,25 +7302,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>44927</v>
+        <v>45834</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>50</v>
+        <v>402</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6850,50 +7331,64 @@
         <v>43</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>45307</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="8">
+        <v>45307</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
@@ -6958,15 +7453,24 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
     </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H18" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H19" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{A103A37A-BAD9-4367-A173-2D832BE36244}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{A103A37A-BAD9-4367-A173-2D832BE36244}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/ACCESOS VARIOS.xlsx
+++ b/ACCESOS VARIOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DE86C0-5C8A-4073-A6E2-9F422DF06806}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{1402AF8E-01AE-4905-A8E4-89E1DB17F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E858F2BE-CB62-4F52-889D-24D0D83E3FF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{05E22A7C-AEF3-4E0A-857A-96523301D07D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACCESS!$B$6:$H$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEKNIA!$B$6:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VMA!$B$6:$H$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">YOLANDA!$B$6:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZARKIN!$B$6:$H$19</definedName>
     <definedName name="BANCOS" localSheetId="0">[1]CATEGORIAS!$C$8:$C$20</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="448">
   <si>
     <t xml:space="preserve"> F5FMD RQGD7 22JHJ CNWMQ</t>
   </si>
@@ -1440,6 +1440,33 @@
   </si>
   <si>
     <t>https://www.farmaciasguadalajara.com/</t>
+  </si>
+  <si>
+    <t>No. de Tarjeta: 114208026</t>
+  </si>
+  <si>
+    <t>NIP: 2387 </t>
+  </si>
+  <si>
+    <t>Validar si aun esta vigente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> www.primeraplus.com.mx </t>
+  </si>
+  <si>
+    <t>VIAJERO FRECUENTE</t>
+  </si>
+  <si>
+    <t>ZRK_DCCONTROLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP 10, Primer servidor </t>
+  </si>
+  <si>
+    <t>Server ZARKIN-121</t>
+  </si>
+  <si>
+    <t>New Servidor SAP 10.</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1567,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1562,6 +1589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,6 +1761,24 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2240,9 +2291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2280,7 +2331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2386,7 +2437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2528,7 +2579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3600,11 +3651,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3656,8 +3707,8 @@
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="47">
-        <f>MAX(B6:B345)</f>
-        <v>45880</v>
+        <f>MAX(B6:B347)</f>
+        <v>45889</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -3998,30 +4049,24 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
-        <v>44606</v>
+        <v>45889</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>324</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>326</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
-        <v>45505</v>
+        <v>44606</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>4</v>
@@ -4030,39 +4075,39 @@
         <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
-        <v>45043</v>
+        <v>45505</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1059</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -4081,7 +4126,7 @@
       <c r="F23" s="11">
         <v>1059</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -4099,13 +4144,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>328</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1059</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>15</v>
@@ -4113,30 +4158,30 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
-        <v>45664</v>
+        <v>45043</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
-        <v>44661</v>
+        <v>45664</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
@@ -4145,42 +4190,42 @@
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
-        <v>43613</v>
+        <v>44661</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>334</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>43665</v>
+        <v>43613</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>4</v>
@@ -4195,38 +4240,38 @@
         <v>332</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>45755</v>
+        <v>43665</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>45035</v>
+        <v>45755</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
@@ -4249,48 +4294,48 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>45540</v>
+        <v>45035</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>45726</v>
+        <v>45540</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -4307,147 +4352,147 @@
         <v>305</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>194</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <v>45554</v>
+        <v>45726</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
-        <v>45827</v>
+        <v>45554</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>381</v>
+        <v>8</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>383</v>
+        <v>6</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
-        <v>45545</v>
+        <v>45827</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>6</v>
+        <v>382</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>5</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
-        <v>45866</v>
+        <v>45887</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="H37" s="13" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="8">
-        <v>45835</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="48">
+        <v>45545</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>422</v>
+      <c r="D38" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
-        <v>45835</v>
+        <v>45866</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -4458,93 +4503,93 @@
         <v>4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
-        <v>45880</v>
+        <v>45835</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>317</v>
+        <v>407</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
-        <v>45854</v>
+        <v>45835</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
-        <v>45854</v>
+        <v>45880</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>420</v>
+        <v>23</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
-        <v>45862</v>
+        <v>45854</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>4</v>
@@ -4553,13 +4598,13 @@
         <v>415</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>421</v>
@@ -4567,40 +4612,68 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
-        <v>45880</v>
+        <v>45854</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <v>45862</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>45880</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="13" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
@@ -4683,11 +4756,29 @@
       <c r="G56" s="12"/>
       <c r="H56" s="13"/>
     </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
   </sheetData>
   <autoFilter ref="B6:H19" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H36">
-    <sortCondition ref="D7:D36"/>
-    <sortCondition ref="E7:E36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H38">
+    <sortCondition ref="D7:D38"/>
+    <sortCondition ref="E7:E38"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
@@ -4696,14 +4787,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{2B9393DA-1406-4AF5-9FF3-4B1125176216}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
-    <hyperlink ref="E29" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{5B237A66-5FDE-4792-A467-F5CF07D5DCC1}"/>
+    <hyperlink ref="E30" r:id="rId3" xr:uid="{F409CE32-EBE8-4BE9-B305-3F871B965A46}"/>
     <hyperlink ref="E10" r:id="rId4" display="zarkinsoporte@gmail.com" xr:uid="{2A7B02A3-3463-45FA-AE4B-C33F6CF7FA15}"/>
     <hyperlink ref="F11" r:id="rId5" xr:uid="{E3462E40-C391-4B83-8473-009ED89E7CEE}"/>
-    <hyperlink ref="G43" r:id="rId6" xr:uid="{A009C80D-5058-4AFD-9D0B-55B518C466B9}"/>
-    <hyperlink ref="G44" r:id="rId7" display="Zarkin@2025" xr:uid="{917C7D59-7AFC-418D-B624-A9A855335A83}"/>
-    <hyperlink ref="E37" r:id="rId8" xr:uid="{0331E833-D86E-4B37-A89F-9FBF09AD7385}"/>
-    <hyperlink ref="F41" r:id="rId9" xr:uid="{202FA394-F494-410C-A882-D2CFF22984C4}"/>
+    <hyperlink ref="G45" r:id="rId6" xr:uid="{A009C80D-5058-4AFD-9D0B-55B518C466B9}"/>
+    <hyperlink ref="G46" r:id="rId7" display="Zarkin@2025" xr:uid="{917C7D59-7AFC-418D-B624-A9A855335A83}"/>
+    <hyperlink ref="E39" r:id="rId8" xr:uid="{0331E833-D86E-4B37-A89F-9FBF09AD7385}"/>
+    <hyperlink ref="F43" r:id="rId9" xr:uid="{202FA394-F494-410C-A882-D2CFF22984C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId10"/>
@@ -6008,11 +6099,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6064,7 +6155,7 @@
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="47">
-        <f>MAX(B6:B375)</f>
+        <f>MAX(B6:B389)</f>
         <v>45880</v>
       </c>
       <c r="C4" s="45"/>
@@ -6933,7 +7024,9 @@
         <v>72</v>
       </c>
       <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
@@ -7087,13 +7180,27 @@
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
+      <c r="B51" s="8">
+        <v>41918</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
@@ -7122,8 +7229,134 @@
       <c r="G54" s="12"/>
       <c r="H54" s="13"/>
     </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:H54" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
+  <autoFilter ref="B6:H68" xr:uid="{C59BC6B0-8656-4FE4-8198-8FB66AA2275D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H49">
     <sortCondition ref="D7:D49"/>
     <sortCondition ref="E7:E49"/>
@@ -7166,11 +7399,12 @@
     <hyperlink ref="F29" r:id="rId30" xr:uid="{017BC6FC-67D7-4A13-A0A6-7BD83821710D}"/>
     <hyperlink ref="F32" r:id="rId31" xr:uid="{3D286E06-8871-42A2-8A69-3DAB4BED248A}"/>
     <hyperlink ref="E48" r:id="rId32" xr:uid="{1A05DF65-48E0-4812-9365-0C481CDA4F9A}"/>
+    <hyperlink ref="H43" r:id="rId33" xr:uid="{28AB7F00-43CA-4D59-9E39-1B0D8D6C343F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
-  <drawing r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
+  <drawing r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
 
